--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H2">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I2">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J2">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.670688</v>
+        <v>27.30988266666667</v>
       </c>
       <c r="N2">
-        <v>71.01206400000001</v>
+        <v>81.929648</v>
       </c>
       <c r="O2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="P2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
       <c r="Q2">
-        <v>0.048927312096</v>
+        <v>2.852854066419556</v>
       </c>
       <c r="R2">
-        <v>0.440345808864</v>
+        <v>25.675686597776</v>
       </c>
       <c r="S2">
-        <v>0.01431516091328617</v>
+        <v>0.07230697423623809</v>
       </c>
       <c r="T2">
-        <v>0.01431516091328617</v>
+        <v>0.07230697423623808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H3">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I3">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J3">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>20.371636</v>
       </c>
       <c r="N3">
-        <v>61.11490799999999</v>
+        <v>61.114908</v>
       </c>
       <c r="O3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="P3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="Q3">
-        <v>0.04210817161199999</v>
+        <v>2.128068630377333</v>
       </c>
       <c r="R3">
-        <v>0.378973544508</v>
+        <v>19.152617673396</v>
       </c>
       <c r="S3">
-        <v>0.01232001568382353</v>
+        <v>0.0539369347492627</v>
       </c>
       <c r="T3">
-        <v>0.01232001568382353</v>
+        <v>0.0539369347492627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H4">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I4">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J4">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.42744333333334</v>
+        <v>42.52135866666666</v>
       </c>
       <c r="N4">
-        <v>139.28233</v>
+        <v>127.564076</v>
       </c>
       <c r="O4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="P4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="Q4">
-        <v>0.09596552537</v>
+        <v>4.441880342823556</v>
       </c>
       <c r="R4">
-        <v>0.86368972833</v>
+        <v>39.976923085412</v>
       </c>
       <c r="S4">
-        <v>0.02807760898665649</v>
+        <v>0.1125816182781783</v>
       </c>
       <c r="T4">
-        <v>0.02807760898665649</v>
+        <v>0.1125816182781783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H5">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I5">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J5">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.859721333333333</v>
+        <v>6.417394333333333</v>
       </c>
       <c r="N5">
-        <v>17.579164</v>
+        <v>19.252183</v>
       </c>
       <c r="O5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="P5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="Q5">
-        <v>0.012112043996</v>
+        <v>0.6703759859801112</v>
       </c>
       <c r="R5">
-        <v>0.109008395964</v>
+        <v>6.033383873821</v>
       </c>
       <c r="S5">
-        <v>0.003543743797969981</v>
+        <v>0.01699100550477577</v>
       </c>
       <c r="T5">
-        <v>0.003543743797969981</v>
+        <v>0.01699100550477577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.002067</v>
+        <v>0.1044623333333333</v>
       </c>
       <c r="H6">
-        <v>0.006201</v>
+        <v>0.313387</v>
       </c>
       <c r="I6">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="J6">
-        <v>0.08402325171745641</v>
+        <v>0.3334131260000681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.60630033333333</v>
+        <v>29.307738</v>
       </c>
       <c r="N6">
-        <v>127.818901</v>
+        <v>87.923214</v>
       </c>
       <c r="O6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="P6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="Q6">
-        <v>0.08806722278899999</v>
+        <v>3.061554696202</v>
       </c>
       <c r="R6">
-        <v>0.7926050051009998</v>
+        <v>27.553992265818</v>
       </c>
       <c r="S6">
-        <v>0.02576672233572023</v>
+        <v>0.07759659323161315</v>
       </c>
       <c r="T6">
-        <v>0.02576672233572023</v>
+        <v>0.07759659323161315</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H7">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I7">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J7">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.670688</v>
+        <v>27.30988266666667</v>
       </c>
       <c r="N7">
-        <v>71.01206400000001</v>
+        <v>81.929648</v>
       </c>
       <c r="O7">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="P7">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
       <c r="Q7">
-        <v>0.5333795029333334</v>
+        <v>5.703659891639112</v>
       </c>
       <c r="R7">
-        <v>4.8004155264</v>
+        <v>51.332939024752</v>
       </c>
       <c r="S7">
-        <v>0.1560562615284866</v>
+        <v>0.1445620348027861</v>
       </c>
       <c r="T7">
-        <v>0.1560562615284866</v>
+        <v>0.1445620348027861</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H8">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I8">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J8">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>20.371636</v>
       </c>
       <c r="N8">
-        <v>61.11490799999999</v>
+        <v>61.114908</v>
       </c>
       <c r="O8">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="P8">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="Q8">
-        <v>0.4590408645333333</v>
+        <v>4.254609388054667</v>
       </c>
       <c r="R8">
-        <v>4.131367780799999</v>
+        <v>38.291484492492</v>
       </c>
       <c r="S8">
-        <v>0.1343062506412628</v>
+        <v>0.1078351448216288</v>
       </c>
       <c r="T8">
-        <v>0.1343062506412628</v>
+        <v>0.1078351448216288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H9">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I9">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J9">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.42744333333334</v>
+        <v>42.52135866666666</v>
       </c>
       <c r="N9">
-        <v>139.28233</v>
+        <v>127.564076</v>
       </c>
       <c r="O9">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="P9">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="Q9">
-        <v>1.046165056444444</v>
+        <v>8.880571583747111</v>
       </c>
       <c r="R9">
-        <v>9.415485508</v>
+        <v>79.925144253724</v>
       </c>
       <c r="S9">
-        <v>0.3060871419929009</v>
+        <v>0.2250824072171927</v>
       </c>
       <c r="T9">
-        <v>0.3060871419929009</v>
+        <v>0.2250824072171927</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H10">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I10">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J10">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.859721333333333</v>
+        <v>6.417394333333333</v>
       </c>
       <c r="N10">
-        <v>17.579164</v>
+        <v>19.252183</v>
       </c>
       <c r="O10">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="P10">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="Q10">
-        <v>0.1320390540444444</v>
+        <v>1.340270667385222</v>
       </c>
       <c r="R10">
-        <v>1.1883514864</v>
+        <v>12.062436006467</v>
       </c>
       <c r="S10">
-        <v>0.03863200786046939</v>
+        <v>0.03396981211094191</v>
       </c>
       <c r="T10">
-        <v>0.03863200786046939</v>
+        <v>0.03396981211094191</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.02253333333333333</v>
+        <v>0.2088496666666667</v>
       </c>
       <c r="H11">
-        <v>0.06759999999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="I11">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="J11">
-        <v>0.9159767482825436</v>
+        <v>0.6665868739999319</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.60630033333333</v>
+        <v>29.307738</v>
       </c>
       <c r="N11">
-        <v>127.818901</v>
+        <v>87.923214</v>
       </c>
       <c r="O11">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="P11">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="Q11">
-        <v>0.9600619675111109</v>
+        <v>6.120911312054001</v>
       </c>
       <c r="R11">
-        <v>8.640557707599998</v>
+        <v>55.08820180848601</v>
       </c>
       <c r="S11">
-        <v>0.2808950862594239</v>
+        <v>0.1551374750473823</v>
       </c>
       <c r="T11">
-        <v>0.2808950862594238</v>
+        <v>0.1551374750473823</v>
       </c>
     </row>
   </sheetData>
